--- a/data-raw/_raw/vn/2019/rd_20190801-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190801-phen.xlsx
@@ -55,9 +55,6 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>VT</t>
+  </si>
+  <si>
+    <t>stage</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -499,17 +499,17 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -541,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -581,7 +581,7 @@
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>19</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="11">
         <v>19</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>19</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="18">
         <v>19</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <v>19</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="18">
         <v>18</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="18">
         <v>19</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="18">
         <v>19</v>
@@ -813,7 +813,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="18">
         <v>19</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="18">
         <v>19</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="18">
         <v>19</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="18">
         <v>19</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="19">
         <v>19</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="19">
         <v>19</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="19">
         <v>19</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="19">
         <v>19</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="19">
         <v>19</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="19">
         <v>19</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="19">
         <v>19</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="19">
         <v>19</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="19">
         <v>19</v>
